--- a/Finflux Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
+++ b/Finflux Automation Excels/Client/2591-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-LESS-AMT-LATE-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -124,8 +129,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +153,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -212,9 +224,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +318,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,6 +370,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,20 +607,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -604,22 +647,22 @@
         <v>10000</v>
       </c>
       <c r="B2" s="4">
-        <v>403.02</v>
+        <v>402.28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>9596.98</v>
+        <v>9597.7199999999993</v>
       </c>
       <c r="F2" s="7">
-        <v>1275.44</v>
+        <v>1276.18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>574.46</v>
+        <v>574.47</v>
       </c>
       <c r="B3" s="4">
         <v>96.98</v>
@@ -631,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>477.48</v>
+        <v>477.49</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -659,10 +702,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -676,22 +719,6 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -703,7 +730,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,10 +746,9 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -832,18 +858,18 @@
         <v>887.72</v>
       </c>
       <c r="L3" s="4">
-        <v>476.99</v>
+        <v>476.25</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>476.99</v>
+        <v>476.25</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4">
-        <v>410.73</v>
+        <v>411.47</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -900,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="K5" s="4">
-        <v>887.72</v>
+        <v>888.46</v>
       </c>
       <c r="L5" s="4">
-        <v>23.01</v>
+        <v>23.75</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4">
@@ -933,13 +959,13 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>789.91</v>
+        <v>789.9</v>
       </c>
       <c r="G6" s="7">
-        <v>7531.63</v>
+        <v>7531.64</v>
       </c>
       <c r="H6" s="4">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -981,7 +1007,7 @@
         <v>813.44</v>
       </c>
       <c r="G7" s="7">
-        <v>6718.19</v>
+        <v>6718.2</v>
       </c>
       <c r="H7" s="4">
         <v>74.28</v>
@@ -1026,7 +1052,7 @@
         <v>819.25</v>
       </c>
       <c r="G8" s="7">
-        <v>5898.94</v>
+        <v>5898.95</v>
       </c>
       <c r="H8" s="4">
         <v>68.47</v>
@@ -1071,7 +1097,7 @@
         <v>829.54</v>
       </c>
       <c r="G9" s="7">
-        <v>5069.3999999999996</v>
+        <v>5069.41</v>
       </c>
       <c r="H9" s="4">
         <v>58.18</v>
@@ -1116,7 +1142,7 @@
         <v>836.05</v>
       </c>
       <c r="G10" s="7">
-        <v>4233.3500000000004</v>
+        <v>4233.3599999999997</v>
       </c>
       <c r="H10" s="4">
         <v>51.67</v>
@@ -1161,7 +1187,7 @@
         <v>844.57</v>
       </c>
       <c r="G11" s="7">
-        <v>3388.78</v>
+        <v>3388.79</v>
       </c>
       <c r="H11" s="4">
         <v>43.15</v>
@@ -1206,7 +1232,7 @@
         <v>854.3</v>
       </c>
       <c r="G12" s="7">
-        <v>2534.48</v>
+        <v>2534.4899999999998</v>
       </c>
       <c r="H12" s="4">
         <v>33.42</v>
@@ -1251,7 +1277,7 @@
         <v>861.89</v>
       </c>
       <c r="G13" s="7">
-        <v>1672.59</v>
+        <v>1672.6</v>
       </c>
       <c r="H13" s="4">
         <v>25.83</v>
@@ -1296,7 +1322,7 @@
         <v>871.22</v>
       </c>
       <c r="G14" s="4">
-        <v>801.37</v>
+        <v>801.38</v>
       </c>
       <c r="H14" s="4">
         <v>16.5</v>
@@ -1338,7 +1364,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <v>801.37</v>
+        <v>801.38</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1353,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>809.54</v>
+        <v>809.55</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -1367,7 +1393,7 @@
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4">
-        <v>809.54</v>
+        <v>809.55</v>
       </c>
     </row>
   </sheetData>
@@ -1380,23 +1406,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,7 +1461,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>410</v>
+        <v>297</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -1447,13 +1473,13 @@
         <v>32</v>
       </c>
       <c r="E2" s="4">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -1469,7 +1495,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
@@ -1481,7 +1507,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="4">
-        <v>23.01</v>
+        <v>23.75</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1493,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -1503,7 +1529,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>407</v>
+        <v>293</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
@@ -1530,14 +1556,14 @@
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>9596.98</v>
+        <v>9597.7199999999993</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>406</v>
+        <v>292</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -1552,7 +1578,7 @@
         <v>500</v>
       </c>
       <c r="F5" s="4">
-        <v>403.02</v>
+        <v>402.28</v>
       </c>
       <c r="G5" s="4">
         <v>96.98</v>
@@ -1561,17 +1587,17 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J5" s="7">
-        <v>4596.9799999999996</v>
+        <v>4597.72</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>408</v>
+        <v>295</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -1605,7 +1631,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>405</v>
+        <v>291</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
